--- a/params_1d_1.xlsx
+++ b/params_1d_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75602C6D-6374-42F9-A6EA-A7A90B903593}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDFFFC3-6B71-400A-9726-A3B7AE881197}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="435" windowWidth="25440" windowHeight="15390" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -685,17 +685,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -709,7 +709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -720,7 +720,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -731,7 +731,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -742,7 +742,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -753,7 +753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -761,18 +761,18 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -780,7 +780,7 @@
         <v>1515000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -791,7 +791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -802,7 +802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -830,7 +830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -841,7 +841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -852,7 +852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -867,7 +867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -881,7 +881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -895,7 +895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -910,7 +910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -924,7 +924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -935,7 +935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -946,7 +946,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -957,7 +957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -968,7 +968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -982,7 +982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -996,7 +996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>99</v>
       </c>
